--- a/rider/weekly/2016_45.xlsx
+++ b/rider/weekly/2016_45.xlsx
@@ -186,22 +186,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>240</c:v>
+                  <c:v>257</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>183</c:v>
+                  <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>230</c:v>
+                  <c:v>232</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>226</c:v>
+                  <c:v>221</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>118</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>73</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -256,22 +256,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>268</c:v>
+                  <c:v>263</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>218.5</c:v>
+                  <c:v>234.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>235</c:v>
+                  <c:v>251</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>245</c:v>
+                  <c:v>243.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>113.67</c:v>
+                  <c:v>113</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>75.67</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -786,10 +786,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="D2">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="E2">
         <v>89.47</v>
@@ -803,10 +803,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>183</v>
+        <v>209</v>
       </c>
       <c r="D3">
-        <v>218.5</v>
+        <v>234.5</v>
       </c>
       <c r="E3">
         <v>89.63</v>
@@ -820,10 +820,10 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D4">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="E4">
         <v>89.79000000000001</v>
@@ -837,10 +837,10 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D5">
-        <v>245</v>
+        <v>243.5</v>
       </c>
       <c r="E5">
         <v>89.95</v>
@@ -854,10 +854,10 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D6">
-        <v>113.67</v>
+        <v>113</v>
       </c>
       <c r="E6">
         <v>90.28</v>
@@ -871,10 +871,10 @@
         <v>16</v>
       </c>
       <c r="C7">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D7">
-        <v>75.67</v>
+        <v>74</v>
       </c>
       <c r="E7">
         <v>90.44</v>
